--- a/files/票务系统设备清单.xlsx
+++ b/files/票务系统设备清单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21495" windowHeight="10350" activeTab="1"/>
+    <workbookView windowWidth="20385" windowHeight="8370" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="关西围明细表" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -182,6 +182,9 @@
   </si>
   <si>
     <t>触摸屏图文内容</t>
+  </si>
+  <si>
+    <t>未到</t>
   </si>
   <si>
     <t>八、寄存储物柜系统</t>
@@ -195,12 +198,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="&quot;￥&quot;#,##0.00_);\(&quot;￥&quot;#,##0.00\)"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="&quot;￥&quot;#,##0.00_);\(&quot;￥&quot;#,##0.00\)"/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -268,6 +271,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -328,13 +338,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -394,11 +400,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="12"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -408,9 +412,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -431,187 +434,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -660,6 +663,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -714,21 +732,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -745,10 +748,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -757,136 +760,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -924,10 +927,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -957,7 +960,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2095,11 +2098,11 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="9" ySplit="1" topLeftCell="J11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="1" topLeftCell="J8" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F22" sqref="F22"/>
+      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" customHeight="1"/>
@@ -2411,7 +2414,9 @@
       <c r="B16" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="6"/>
+      <c r="C16" s="6">
+        <v>1</v>
+      </c>
       <c r="D16" s="6"/>
       <c r="E16" s="3">
         <v>2</v>
@@ -2449,7 +2454,9 @@
       <c r="B18" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="6"/>
+      <c r="C18" s="6">
+        <v>1</v>
+      </c>
       <c r="D18" s="6"/>
       <c r="E18" s="3">
         <v>2</v>
@@ -2487,7 +2494,9 @@
       <c r="B20" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="6"/>
+      <c r="C20" s="6">
+        <v>1</v>
+      </c>
       <c r="D20" s="6"/>
       <c r="E20" s="3">
         <v>6</v>
@@ -2509,7 +2518,9 @@
       <c r="B21" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="6"/>
+      <c r="C21" s="6">
+        <v>1</v>
+      </c>
       <c r="D21" s="6"/>
       <c r="E21" s="3">
         <v>6</v>
@@ -2531,7 +2542,9 @@
       <c r="B22" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="6"/>
+      <c r="C22" s="6">
+        <v>1</v>
+      </c>
       <c r="D22" s="6"/>
       <c r="E22" s="3">
         <v>6</v>
@@ -2569,7 +2582,9 @@
       <c r="B24" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="6"/>
+      <c r="C24" s="6" t="s">
+        <v>53</v>
+      </c>
       <c r="D24" s="6"/>
       <c r="E24" s="3">
         <v>1</v>
@@ -2591,7 +2606,9 @@
       <c r="B25" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="6"/>
+      <c r="C25" s="6">
+        <v>1</v>
+      </c>
       <c r="D25" s="6"/>
       <c r="E25" s="3">
         <v>1</v>
@@ -2674,7 +2691,7 @@
     </row>
     <row r="29" customHeight="1" spans="1:9">
       <c r="A29" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="6"/>
@@ -2778,7 +2795,7 @@
     </row>
     <row r="34" customHeight="1" spans="1:9">
       <c r="A34" s="18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B34" s="19"/>
       <c r="C34" s="6"/>
